--- a/네이버뉴스/data/001.xlsx
+++ b/네이버뉴스/data/001.xlsx
@@ -458,12 +458,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[코인뉴스] 일론 머스크 “비트코인, 부자들에게만 유리”</t>
+          <t>휴일 검사소 긴 줄…한파에 운영시간 단축하기도</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021.12.24 09:32</t>
+          <t>2021.12.26 17:13</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -476,12 +476,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>경기도, 연말연시 관광숙박업계 방역수칙 특별점검</t>
+          <t>윤석열 "충청·전북 新산업벨트 조성…현금 뿌리기 아닌 선별복지할 것"</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021.12.24 09:32</t>
+          <t>2021.12.26 17:13</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -494,12 +494,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[속보]위중증 1084명 연일 '역대 최다'…확진자 6233명·사망 56명</t>
+          <t>축사악취는 커피박으로 …김천시,축사악취해결에 커피박 활용</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021.12.24 09:32</t>
+          <t>2021.12.26 17:13</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -512,12 +512,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>안철수 “이석기도 나오는데 李·朴 사면해야…완전 주객전도”</t>
+          <t>[단독] ‘이재명일병구하기’ 전남 당원들 나서다</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021.12.24 09:32</t>
+          <t>2021.12.26 17:13</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -530,12 +530,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>"임신 모르던 남편이 알까봐"…의류수거함에 신생아 버린 20대母</t>
+          <t>제주 오후 5시 현재 16명 신규 확진…학교·회의 집단감염 계속</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021.12.24 09:31</t>
+          <t>2021.12.26 17:12</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -548,12 +548,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[속보]신규확진자 6233명, 유행 감소 추세, 위중증 환자 1명 늘어</t>
+          <t>김건희 울먹이며 직접 사과...尹 낮은 지지율 반등할까?</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021.12.24 09:31</t>
+          <t>2021.12.26 17:12</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -566,12 +566,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>빙그레, 환경경영시스템(ISO 14001) 국제표준 인증 획득</t>
+          <t>원주시 오전에만 37명 확진…누적 2963명</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021.12.24 09:31</t>
+          <t>2021.12.26 17:12</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -584,12 +584,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>자안바이오, 상장폐지 정리 매매 첫날 80%대 폭락</t>
+          <t>오미크론, 전세계 항공 7천편 넘게 발목</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2021.12.24 09:31</t>
+          <t>2021.12.26 17:12</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -602,12 +602,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BGF리테일, 공정거래협약 가맹분야 이행평가 최우수 표창</t>
+          <t>1시간 만에 안마의자 1억5000만원어치 판 개그맨 출신, 누구?</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2021.12.24 09:31</t>
+          <t>2021.12.26 17:12</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -620,12 +620,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>청호나이스, 요양원·복지관 등에 마스크와 쌀 전달</t>
+          <t>"일자리가 최고의 복지"…윤석열 '국민행복시대' 공약…구체성 떨어진다는 지적도</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2021.12.24 09:31</t>
+          <t>2021.12.26 17:12</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -638,12 +638,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>라이브 커머스로 새롭게 세상을 담다</t>
+          <t>베들레헴 예수탄생기념 성당서 열린 성탄절 미사</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2021.12.24 09:31</t>
+          <t>2021.12.26 17:11</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -656,12 +656,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>한국어 배우러 온 일본 학생 39명...10주간 한국어수업</t>
+          <t>크리스마스에 산타모자 쓰고 얼음수영 즐기는 독일인들</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2021.12.24 09:31</t>
+          <t>2021.12.26 17:11</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -674,12 +674,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>현대차그룹-KTC, 전기차 충전 인프라 품질검증센터 세운다</t>
+          <t>이재명 "박근혜 사면, 文대통령 혼자 짊어지겠다 생각한 듯"</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2021.12.24 09:31</t>
+          <t>2021.12.26 17:11</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -692,12 +692,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">빙그레,   환경경영시스템(ISO 14001) 국제표준 인증 획득 </t>
+          <t>[윤석열 발언록] "다주택자 물량 나오게 세제 합리화할 것"</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2021.12.24 09:31</t>
+          <t>2021.12.26 17:11</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -710,30 +710,30 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[속보]코로나 위중증 1084명...하루 만에 또 최다</t>
+          <t>김건희 사과에 이준석 "위축되지 말고 필요한 역할해야"</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2021.12.24 09:31</t>
+          <t>2021.12.26 17:11</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>한중, 사드 갈등 이후 첫 '전략대화'…최종건 "올림픽 성공개최 기원"</t>
+          <t>최태원 "중대재해법 CEO처벌 능사 아냐…경제적 접근이 합리적"</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2021.12.24 09:31</t>
+          <t>2021.12.26 17:11</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -746,12 +746,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>아시아교류협회, 콘텐츠 크리에이터 아카데미 1기 수료식 진행</t>
+          <t>Container volume hits 6-month low at Incheon Port</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2021.12.24 09:31</t>
+          <t>2021.12.26 17:11</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -764,30 +764,30 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>오바오바이크, 레트로한 e-카페레이서 ‘CR-21′ 공개</t>
+          <t>尹 지지율 급락 속 '김건희 대국민사과'…반등 계기될까</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2021.12.24 09:31</t>
+          <t>2021.12.26 17:11</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>"힙합 크루에 잘 보이고 싶어" 마약 복용·판매 20대 래퍼 실형</t>
+          <t>동백 눈꽃</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2021.12.24 09:31</t>
+          <t>2021.12.26 17:10</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -800,12 +800,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>“살 빼려면 체질부터 개선해라”</t>
+          <t>“11년 사귄 여친, ‘혼전순결‘ 지켜줬는데...온라인서 만난 男 아이 임신했답니다”</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2021.12.24 09:31</t>
+          <t>2021.12.26 17:10</t>
         </is>
       </c>
       <c r="C21" t="n">
